--- a/languages/it_unsicher.xlsx
+++ b/languages/it_unsicher.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Mietpreis</t>
   </si>
@@ -97,14 +97,31 @@
   </si>
   <si>
     <t>Es tut uns leid, aber auf ihre Suchanfrage gab es keine Treffer. Bitte versuchen Sie es mit anderen Suchbegriffen.</t>
+  </si>
+  <si>
+    <t>Anbieter direkt kontaktieren</t>
+  </si>
+  <si>
+    <t>Kindergarten</t>
+  </si>
+  <si>
+    <t>Navigationstexte Deutsch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,8 +149,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -465,142 +483,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="69.1640625" customWidth="1"/>
+    <col min="1" max="1" width="96" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>25</v>
+      <c r="A1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
